--- a/LR_1/Графики.xlsx
+++ b/LR_1/Графики.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\POOP_MAI_25\TestLR1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\POOP_MAI_25\LR_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2FCC230-258B-496C-B9C9-A2989212A256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231C09B8-CAAB-4E3F-B7B4-036E8651B801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B62E56E3-0D3D-48EE-8E71-EC517214BB83}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -586,6 +585,7 @@
       <c:valAx>
         <c:axId val="1694774735"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -905,395 +905,6 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-045F-4D7E-8EAC-227F6C7B3E79}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1771266463"/>
-        <c:axId val="1771273183"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1771266463"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1771273183"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1771273183"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1771266463"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Average case</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$C$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quick (A)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$18:$A$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>250000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$C$18:$C$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1295</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3281</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7083</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14867</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42033</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>82959</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F55F-4020-827B-06F3A25E9DB9}"/>
             </c:ext>
           </c:extLst>
@@ -1303,11 +914,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$D$17</c:f>
+              <c:f>Лист1!$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sort (A)</c:v>
+                  <c:v>Quick (A)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1365,39 +976,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$18:$D$27</c:f>
+              <c:f>Лист1!$C$18:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>118</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>265</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>673</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1332</c:v>
+                  <c:v>1295</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4050</c:v>
+                  <c:v>3281</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7538</c:v>
+                  <c:v>7083</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16762</c:v>
+                  <c:v>14867</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49165</c:v>
+                  <c:v>42033</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>91969</c:v>
+                  <c:v>82959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1406,6 +1017,117 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F55F-4020-827B-06F3A25E9DB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sort (A)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$18:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$18:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7538</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49165</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E49C-44EE-9994-557961312F03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1475,6 +1197,7 @@
       <c:valAx>
         <c:axId val="1835426607"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1611,364 +1334,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Insert (Worst case)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$B$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Insert (W)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$36:$A$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>250000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$B$36:$B$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>403</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9938</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45367</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>137754</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>872380</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3499003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25654004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>99861854</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>353256663</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-46B9-4CDC-988D-10A4F3F6A23D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1843501055"/>
-        <c:axId val="1843502975"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1843501055"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1843502975"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1843502975"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1843501055"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2053,11 +1419,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$35</c:f>
+              <c:f>Лист1!$B$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Quick (W)</c:v>
+                  <c:v>Insert (W)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2115,39 +1481,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$36:$C$45</c:f>
+              <c:f>Лист1!$B$36:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>1985</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73</c:v>
+                  <c:v>9938</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>234</c:v>
+                  <c:v>45367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>336</c:v>
+                  <c:v>137754</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>929</c:v>
+                  <c:v>872380</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1936</c:v>
+                  <c:v>3499003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4077</c:v>
+                  <c:v>25654004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12806</c:v>
+                  <c:v>99861854</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23063</c:v>
+                  <c:v>353256663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2164,11 +1530,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$D$35</c:f>
+              <c:f>Лист1!$C$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sort (W)</c:v>
+                  <c:v>Quick (W)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2226,39 +1592,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$36:$D$45</c:f>
+              <c:f>Лист1!$C$36:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>307</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>471</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1196</c:v>
+                  <c:v>929</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2518</c:v>
+                  <c:v>1936</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5300</c:v>
+                  <c:v>4077</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21172</c:v>
+                  <c:v>12806</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28967</c:v>
+                  <c:v>23063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2267,6 +1633,117 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3783-4518-84B1-DDD6FA8BF7C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sort (W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$36:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$36:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2518</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21172</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3413-43FF-AB4D-03E01190A40A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2336,6 +1813,7 @@
       <c:valAx>
         <c:axId val="1771265983"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2592,86 +2070,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3705,1038 +3103,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5293,22 +3659,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:colOff>64326</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>184741</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:colOff>373440</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>184741</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
+        <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F8784F-1D67-2B72-6CC8-11716C7A46F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7AEFAC-A41F-49D0-5EA5-5017AED9B775}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5328,88 +3694,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>22572</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38603</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>331686</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38603</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7AEFAC-A41F-49D0-5EA5-5017AED9B775}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>52191</xdr:colOff>
+      <xdr:colOff>41753</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>183714</xdr:rowOff>
+      <xdr:rowOff>173276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>386218</xdr:colOff>
+      <xdr:colOff>375780</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>108558</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AE9E99-FA7D-D1E7-1033-0E992473D367}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>31314</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>16701</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>365341</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>129435</xdr:rowOff>
+      <xdr:rowOff>98120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5428,7 +3722,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5736,8 +4030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D031D63-1846-4026-B7FD-635995860689}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="73" workbookViewId="0">
-      <selection activeCell="O53" sqref="O53"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
